--- a/Code/Results/Cases/Case_8_37/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_8_37/line/parallel.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -457,25 +463,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,25 +522,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -563,25 +581,31 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,25 +640,31 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -669,25 +699,31 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -722,25 +758,31 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -775,25 +817,31 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -828,25 +876,31 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -881,25 +935,31 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -934,25 +994,31 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -987,25 +1053,31 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1040,25 +1112,31 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1093,25 +1171,31 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1146,25 +1230,31 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1199,25 +1289,31 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1252,25 +1348,31 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1305,25 +1407,31 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1358,25 +1466,31 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1411,25 +1525,31 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1464,25 +1584,31 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1517,25 +1643,31 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2</v>
       </c>
       <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1570,25 +1702,31 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1623,25 +1761,31 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1676,21 +1820,27 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
         <v>2</v>
       </c>
     </row>
